--- a/internal/excel/templates/group_template.xlsx
+++ b/internal/excel/templates/group_template.xlsx
@@ -8,9 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Доступные дисциплины" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Дисциплины группы" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Состав группы" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Название группы" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Состав группы" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Дисциплины группы" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Доступные дисциплины" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Доступные дисциплины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисциплины группы</t>
+    <t xml:space="preserve">Название группы</t>
   </si>
   <si>
     <t xml:space="preserve">Фамилия</t>
@@ -40,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">TelegramUsername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дисциплины группы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доступные дисциплины</t>
   </si>
 </sst>
 </file>
@@ -54,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -75,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,15 +155,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="202.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,124 +174,10 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -298,138 +190,266 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="202.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="71.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="71.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -447,266 +467,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="71.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="71.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="202.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -717,4 +609,153 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="202.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>